--- a/tc.xlsx
+++ b/tc.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="80" windowWidth="19140" windowHeight="7340"/>
+    <workbookView xWindow="0" yWindow="2440" windowWidth="15620" windowHeight="2920" tabRatio="427"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="fb" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>TC ID</t>
   </si>
@@ -30,9 +31,6 @@
     <t>User should land to facebook welcome screen when they visit to facebook.com</t>
   </si>
   <si>
-    <t>Expected (from requirements)</t>
-  </si>
-  <si>
     <t>Actual (webApp after dev team develped)</t>
   </si>
   <si>
@@ -40,13 +38,32 @@
   </si>
   <si>
     <t>Sign Up</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Login with invalid credential</t>
+  </si>
+  <si>
+    <t>TestData</t>
+  </si>
+  <si>
+    <t>taltekc@gmail.com</t>
+  </si>
+  <si>
+    <t>User should NOT able to login</t>
+  </si>
+  <si>
+    <t>Verify word "Sign Up"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +78,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,14 +104,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -380,20 +410,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="47.81640625" customWidth="1"/>
-    <col min="3" max="3" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="67.453125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.453125" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.4861328125" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="36.1796875" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -401,32 +432,63 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
